--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Họ tên</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
+    <t>01:00:24 14/06/2022</t>
+  </si>
+  <si>
+    <t>Nộp muộn</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -110,11 +119,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -590,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -636,6 +646,26 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -684,42 +714,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Họ tên</t>
   </si>
@@ -44,13 +44,13 @@
     <t>haupham19092k@gmail.com</t>
   </si>
   <si>
-    <t>17:33:41 12/06/2022</t>
+    <t>22:37:10 16/06/2022</t>
   </si>
   <si>
     <t>16:43:00 13/06/2022</t>
   </si>
   <si>
-    <t>Đã nộp</t>
+    <t>Nộp muộn</t>
   </si>
   <si>
     <t/>
@@ -59,10 +59,7 @@
     <t>haupham@gmail.com</t>
   </si>
   <si>
-    <t>01:00:24 14/06/2022</t>
-  </si>
-  <si>
-    <t>Nộp muộn</t>
+    <t>22:37:30 16/06/2022</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -93,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,6 +122,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -190,7 +192,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +202,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -642,7 +645,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -663,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -713,43 +716,43 @@
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" ht="12.75">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75">
+      <c r="B2" s="8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75">
-      <c r="B2" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75">
+      <c r="B5" s="9" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75">
-      <c r="B5" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75">
+      <c r="B8" s="9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75">
-      <c r="B8" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75">
+      <c r="B11" s="9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75">
-      <c r="B11" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Họ tên</t>
   </si>
@@ -47,19 +47,28 @@
     <t>22:37:10 16/06/2022</t>
   </si>
   <si>
-    <t>16:43:00 13/06/2022</t>
+    <t>04:43:00 13/06/2022</t>
   </si>
   <si>
     <t>Nộp muộn</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
+    <t>22:37:30 16/06/2022</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>haupham@gmail.com</t>
-  </si>
-  <si>
-    <t>22:37:30 16/06/2022</t>
+    <t>haupham2@gmail.com</t>
+  </si>
+  <si>
+    <t>23:36:16 25/06/2022</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -603,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -669,7 +678,27 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -717,42 +746,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1_2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Họ tên</t>
   </si>
@@ -38,37 +38,34 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>thanh Hậu</t>
-  </si>
-  <si>
-    <t>haupham19092k@gmail.com</t>
-  </si>
-  <si>
-    <t>22:37:10 16/06/2022</t>
-  </si>
-  <si>
-    <t>04:43:00 13/06/2022</t>
-  </si>
-  <si>
-    <t>Nộp muộn</t>
+    <t>pham hau</t>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
+    <t>15:48:45 02/07/2022</t>
+  </si>
+  <si>
+    <t>14:15:00 03/07/2022</t>
+  </si>
+  <si>
+    <t>Đã nộp</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>haupham@gmail.com</t>
-  </si>
-  <si>
-    <t>22:37:30 16/06/2022</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>haupham2@gmail.com</t>
-  </si>
-  <si>
-    <t>23:36:16 25/06/2022</t>
+    <t>pham thanh hau</t>
+  </si>
+  <si>
+    <t>haupham1@gmail.com</t>
+  </si>
+  <si>
+    <t>15:50:02 02/07/2022</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -99,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -120,12 +117,6 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -201,7 +192,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,7 +202,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -612,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -654,7 +644,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -663,42 +653,22 @@
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -745,43 +715,43 @@
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" ht="12.75">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75">
+      <c r="B2" s="7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75">
-      <c r="B2" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75">
+      <c r="B5" s="8" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75">
-      <c r="B5" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75">
+      <c r="B8" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75">
-      <c r="B8" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75">
+      <c r="B11" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75">
-      <c r="B11" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
